--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,13 +484,186 @@
           <t>nie, możemy, fałszować, Możemy, wszystko</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>5/3</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D, :, /, p, y, t, h, o, n,  , p, r, o, j, e, k, t, y, /, U, w, u, B, i, s, -, s, o, u, n, d, h, e, l, p, e, r, /, a, u, d, i, o, /, d, e, m, o, n, y, \, 3, 1, w, i, e, l, e, _, d, e, m, o, n, o, w, _, c, z, e, s, c, _, 1, ., w, a, v</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2, /, 4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D, :, /, p, y, t, h, o, n,  , p, r, o, j, e, k, t, y, /, U, w, u, B, i, s, -, s, o, u, n, d, h, e, l, p, e, r, /, a, u, d, i, o, /, d, e, m, o, n, y, \, 3, 1, w, i, e, l, e, _, d, e, m, o, n, o, w, _, c, z, e, s, c, _, 1, ., w, a, v</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4, /, 4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D, :, /, p, y, t, h, o, n,  , p, r, o, j, e, k, t, y, /, U, w, u, B, i, s, -, s, o, u, n, d, h, e, l, p, e, r, /, a, u, d, i, o, /, d, e, m, o, n, y, \, 3, 1, w, i, e, l, e, _, d, e, m, o, n, o, w, _, c, z, e, s, c, _, 1, ., w, a, v</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3, /, 4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>D, :, /, p, y, t, h, o, n,  , p, r, o, j, e, k, t, y, /, U, w, u, B, i, s, -, s, o, u, n, d, h, e, l, p, e, r, /, a, u, d, i, o, /, d, e, m, o, n, y, \, 3, 1, w, i, e, l, e, _, d, e, m, o, n, o, w, _, c, z, e, s, c, _, 1, ., w, a, v</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2, /, 4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>o, 13:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D, :, /, p, y, t, h, o, n,  , p, r, o, j, e, k, t, y, /, U, w, u, B, i, s, -, s, o, u, n, d, h, e, l, p, e, r, /, a, u, d, i, o, /, d, e, m, o, n, y, \, 3, 1, w, i, e, l, e, _, d, e, m, o, n, o, w, _, c, z, e, s, c, _, 1, ., w, a, v</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0, /, 4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>rozdział, 13, w, końcu</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>D, :, /, p, y, t, h, o, n,  , p, r, o, j, e, k, t, y, /, U, w, u, B, i, s, -, s, o, u, n, d, h, e, l, p, e, r, /, a, u, d, i, o, /, d, e, m, o, n, y, \, 3, 1, w, i, e, l, e, _, d, e, m, o, n, o, w, _, c, z, e, s, c, _, 2, ., w, a, v</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2, /, 5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>szydło, z, worka, Ola, na</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5/3</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>3</v>
       </c>
     </row>
